--- a/Electrical/Pi_ExternalConnections.xlsx
+++ b/Electrical/Pi_ExternalConnections.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub_Local\2018\Electrical\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chedd\Desktop\IEEEHardware\2018\Electrical\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9874" yWindow="0" windowWidth="18523" windowHeight="10423" xr2:uid="{275B7CE7-B5D7-42A8-8D01-8AF01286FEB7}"/>
+    <workbookView xWindow="9876" yWindow="0" windowWidth="18528" windowHeight="10428" xr2:uid="{275B7CE7-B5D7-42A8-8D01-8AF01286FEB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
   <si>
     <t>Interface Type</t>
   </si>
@@ -86,9 +86,6 @@
     <t>https://www.sparkfun.com/products/13284</t>
   </si>
   <si>
-    <t>VDD</t>
-  </si>
-  <si>
     <t>ground</t>
   </si>
   <si>
@@ -213,16 +210,51 @@
   </si>
   <si>
     <t>Pin Breakout Interface</t>
+  </si>
+  <si>
+    <t>Which connectors/signals</t>
+  </si>
+  <si>
+    <t>:)</t>
+  </si>
+  <si>
+    <t>VDD/VCC</t>
+  </si>
+  <si>
+    <t>:) connect to 13</t>
+  </si>
+  <si>
+    <t>:) connect to 11</t>
+  </si>
+  <si>
+    <t>:) connect to 12</t>
+  </si>
+  <si>
+    <t>:) connect to 9</t>
+  </si>
+  <si>
+    <t>:) connect to 10</t>
+  </si>
+  <si>
+    <t>bridge to SDOM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -294,10 +326,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -311,12 +344,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -629,35 +664,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91353DA0-C921-4B81-83D7-9273390D1805}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.23046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.84375" customWidth="1"/>
-    <col min="3" max="3" width="20.07421875" customWidth="1"/>
-    <col min="4" max="4" width="19.23046875" customWidth="1"/>
-    <col min="5" max="5" width="10.921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.69140625" customWidth="1"/>
-    <col min="7" max="7" width="17.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>48</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -666,53 +702,56 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5"/>
-      <c r="B3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
@@ -721,7 +760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="E5" s="6" t="s">
         <v>4</v>
@@ -730,37 +769,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
-        <v>49</v>
+      <c r="D6" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="E7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="E8" s="4" t="s">
         <v>8</v>
@@ -769,7 +808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -778,7 +817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="E10" s="6" t="s">
         <v>14</v>
@@ -787,126 +826,154 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
         <v>28</v>
       </c>
-      <c r="F16" t="s">
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
         <v>30</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E18" t="s">
+    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
         <v>31</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="E23" t="s">
+      <c r="F23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="5:6" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="E24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>45</v>
+      <c r="G24" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{E6746FDF-F36C-4A2B-8D7F-300AA30307B3}"/>
+    <hyperlink ref="H11" r:id="rId2" xr:uid="{5F21002E-9BEF-4D8B-A196-D38A72CF76FC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Electrical/Pi_ExternalConnections.xlsx
+++ b/Electrical/Pi_ExternalConnections.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chedd\Desktop\IEEEHardware\2018\Electrical\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github_Local\2018\Electrical\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9876" yWindow="0" windowWidth="18528" windowHeight="10428" xr2:uid="{275B7CE7-B5D7-42A8-8D01-8AF01286FEB7}"/>
+    <workbookView xWindow="10800" yWindow="0" windowWidth="18525" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
-  <si>
-    <t>Interface Type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
   <si>
     <t>Signal Name</t>
   </si>
@@ -164,9 +161,6 @@
     <t xml:space="preserve">2-pin: </t>
   </si>
   <si>
-    <t>Pi Connector</t>
-  </si>
-  <si>
     <t>Connector Link</t>
   </si>
   <si>
@@ -185,18 +179,9 @@
     <t>https://www.digikey.com/product-detail/en/sullins-connector-solutions/PPTC202LFBN-RC/S6104-ND/807240</t>
   </si>
   <si>
-    <t>Housing Outline Dimension</t>
-  </si>
-  <si>
-    <t>Sensor Link</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>5.08mm x 102mm</t>
-  </si>
-  <si>
     <t>2x 1-row 20 pin connectors (breakout to them on left &amp; right)</t>
   </si>
   <si>
@@ -212,9 +197,6 @@
     <t>Pin Breakout Interface</t>
   </si>
   <si>
-    <t>Which connectors/signals</t>
-  </si>
-  <si>
     <t>:)</t>
   </si>
   <si>
@@ -237,13 +219,34 @@
   </si>
   <si>
     <t>bridge to SDOM</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Connector Choice</t>
+  </si>
+  <si>
+    <t>Signals being Used</t>
+  </si>
+  <si>
+    <t>0.1" header pins</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +262,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -268,7 +279,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -318,6 +329,119 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom style="medium">
@@ -330,7 +454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -338,17 +462,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -663,317 +802,375 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91353DA0-C921-4B81-83D7-9273390D1805}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="E5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="E7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="E10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E13" t="s">
+    </row>
+    <row r="24" spans="1:7" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="26"/>
+      <c r="B24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{E6746FDF-F36C-4A2B-8D7F-300AA30307B3}"/>
-    <hyperlink ref="H11" r:id="rId2" xr:uid="{5F21002E-9BEF-4D8B-A196-D38A72CF76FC}"/>
+    <hyperlink ref="D6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Electrical/Pi_ExternalConnections.xlsx
+++ b/Electrical/Pi_ExternalConnections.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github_Local\2018\Electrical\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="0" windowWidth="18525" windowHeight="10425"/>
+    <workbookView xWindow="12660" yWindow="0" windowWidth="18525" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,23 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>Signal Name</t>
   </si>
   <si>
-    <t>Serial (to the Arduino)</t>
-  </si>
-  <si>
     <t>Tx</t>
   </si>
   <si>
     <t>Rx</t>
   </si>
   <si>
-    <t>Distance Sensor (x8)</t>
-  </si>
-  <si>
     <t>Vin</t>
   </si>
   <si>
@@ -74,15 +68,9 @@
     <t>i2c serial data</t>
   </si>
   <si>
-    <t>https://learn.adafruit.com/adafruit-vl53l0x-micro-lidar-distance-sensor-breakout/pinouts</t>
-  </si>
-  <si>
     <t>IMU</t>
   </si>
   <si>
-    <t>https://www.sparkfun.com/products/13284</t>
-  </si>
-  <si>
     <t>ground</t>
   </si>
   <si>
@@ -98,12 +86,6 @@
     <t>i2c &amp; SPI serial clock</t>
   </si>
   <si>
-    <t>right side of board</t>
-  </si>
-  <si>
-    <t>left side of board</t>
-  </si>
-  <si>
     <t>DEN</t>
   </si>
   <si>
@@ -152,51 +134,15 @@
     <t>SDO AG</t>
   </si>
   <si>
-    <t>SPI: Magnetometer MISO, I2C: Magnetometer Address Select</t>
-  </si>
-  <si>
-    <t>SPI: Accel/Gyro MISO, I2C: Accel/Gryo Address Select</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-pin: </t>
-  </si>
-  <si>
-    <t>Connector Link</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=252199103&amp;uq=636543209955835002</t>
-  </si>
-  <si>
     <t>5-pin snapping connector</t>
   </si>
   <si>
-    <t>https://www.digikey.com/products/en?keywords=WM4824-ND</t>
-  </si>
-  <si>
     <t>40pin(in 2 rows of 20) female connector to Pi</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/sullins-connector-solutions/PPTC202LFBN-RC/S6104-ND/807240</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>2x 1-row 20 pin connectors (breakout to them on left &amp; right)</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/sullins-connector-solutions/PPTC201LFBN-RC/S7018-ND/810158</t>
-  </si>
-  <si>
-    <t>Female interface to Pi 2-row 20 pin male headers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use 2 of these to breakout connections for pi </t>
-  </si>
-  <si>
-    <t>Pin Breakout Interface</t>
-  </si>
-  <si>
     <t>:)</t>
   </si>
   <si>
@@ -230,16 +176,69 @@
     <t>Interface</t>
   </si>
   <si>
-    <t>Connector Choice</t>
-  </si>
-  <si>
-    <t>Signals being Used</t>
-  </si>
-  <si>
-    <t>0.1" header pins</t>
-  </si>
-  <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>adafruit</t>
+  </si>
+  <si>
+    <t>sparkfun</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>digikey</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Distance Sensor</t>
+  </si>
+  <si>
+    <t>Serial (to Arduino)</t>
+  </si>
+  <si>
+    <t>Pi Breakout Interface</t>
+  </si>
+  <si>
+    <t>Pi Pinout</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>2x 1-row 20 pin connectors (breakout on left &amp; right)</t>
+  </si>
+  <si>
+    <t>2-pin</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>Signals Used</t>
+  </si>
+  <si>
+    <t>SPI: Magnetometer MISO,
+I2C: Magnetometer Address Select</t>
+  </si>
+  <si>
+    <t>SPI: Accel/Gyro MISO,
+I2C: Accel/Gryo Address Select</t>
+  </si>
+  <si>
+    <t>Interface to Pi</t>
+  </si>
+  <si>
+    <t>Pin Breakout</t>
+  </si>
+  <si>
+    <t>0.1" standard header pins</t>
   </si>
 </sst>
 </file>
@@ -279,7 +278,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -368,17 +367,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -396,26 +384,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -439,12 +407,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -454,7 +433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -462,32 +441,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -509,7 +527,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Custom 2">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -544,7 +562,7 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -803,374 +821,451 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="28">
+        <v>1</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="28">
+        <v>8</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="31">
+        <v>1</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="G23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
-      <c r="B24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D15:D23"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1"/>
+    <hyperlink ref="I6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId3"/>
+    <hyperlink ref="I2" r:id="rId4"/>
+    <hyperlink ref="I3" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId7" display="pi_pinout"/>
+    <hyperlink ref="I11" r:id="rId8"/>
+    <hyperlink ref="I15" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Electrical/Pi_ExternalConnections.xlsx
+++ b/Electrical/Pi_ExternalConnections.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12660" yWindow="0" windowWidth="18525" windowHeight="10425"/>
+    <workbookView xWindow="13635" yWindow="0" windowWidth="18525" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,6 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -505,7 +506,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -882,7 +882,7 @@
       <c r="C2" s="28">
         <v>1</v>
       </c>
-      <c r="D2" s="32"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="2" t="s">
         <v>38</v>
       </c>
@@ -902,7 +902,7 @@
     <row r="3" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="C3" s="29"/>
-      <c r="D3" s="33"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="6" t="s">
         <v>38</v>
       </c>
@@ -923,7 +923,7 @@
       <c r="C4" s="28">
         <v>1</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
@@ -943,7 +943,7 @@
     <row r="5" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="C5" s="29"/>
-      <c r="D5" s="33"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="6" t="s">
         <v>2</v>
       </c>
@@ -963,7 +963,7 @@
       <c r="C6" s="28">
         <v>8</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
@@ -983,7 +983,7 @@
     <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="C7" s="30"/>
-      <c r="D7" s="34"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="4" t="s">
         <v>4</v>
       </c>
@@ -996,7 +996,7 @@
     <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="34"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1009,7 +1009,7 @@
     <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="34"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1022,7 +1022,7 @@
     <row r="10" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="C10" s="29"/>
-      <c r="D10" s="33"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="6" t="s">
         <v>11</v>
       </c>
@@ -1042,7 +1042,7 @@
       <c r="C11" s="31">
         <v>1</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="36" t="s">
         <v>63</v>
       </c>
       <c r="E11" s="14" t="s">
@@ -1057,14 +1057,14 @@
       <c r="H11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="32" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="C12" s="30"/>
-      <c r="D12" s="36"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="4" t="s">
         <v>40</v>
       </c>
@@ -1080,7 +1080,7 @@
     <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="36"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1097,7 +1097,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="37"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="16" t="s">
         <v>10</v>
       </c>
@@ -1114,7 +1114,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="36" t="s">
         <v>64</v>
       </c>
       <c r="E15" s="14" t="s">
@@ -1126,14 +1126,14 @@
       <c r="H15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="32" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="C16" s="30"/>
-      <c r="D16" s="36"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="4" t="s">
         <v>22</v>
       </c>
@@ -1146,7 +1146,7 @@
     <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="C17" s="30"/>
-      <c r="D17" s="36"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="4" t="s">
         <v>23</v>
       </c>
@@ -1159,7 +1159,7 @@
     <row r="18" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="C18" s="30"/>
-      <c r="D18" s="36"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="4" t="s">
         <v>24</v>
       </c>
@@ -1172,7 +1172,7 @@
     <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="36"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="4" t="s">
         <v>26</v>
       </c>
@@ -1185,7 +1185,7 @@
     <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="C20" s="30"/>
-      <c r="D20" s="36"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="4" t="s">
         <v>28</v>
       </c>
@@ -1201,7 +1201,7 @@
     <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="C21" s="30"/>
-      <c r="D21" s="36"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="4" t="s">
         <v>30</v>
       </c>
@@ -1217,7 +1217,7 @@
     <row r="22" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="C22" s="30"/>
-      <c r="D22" s="36"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="4" t="s">
         <v>34</v>
       </c>
@@ -1233,7 +1233,7 @@
     <row r="23" spans="1:9" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="C23" s="29"/>
-      <c r="D23" s="38"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="6" t="s">
         <v>35</v>
       </c>

--- a/Electrical/Pi_ExternalConnections.xlsx
+++ b/Electrical/Pi_ExternalConnections.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github_Local\2018\Electrical\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub_Local\2018\Electrical\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13635" yWindow="0" windowWidth="18525" windowHeight="10425"/>
+    <workbookView xWindow="14734" yWindow="0" windowWidth="18523" windowHeight="10423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
   <si>
     <t>Signal Name</t>
   </si>
@@ -44,12 +44,6 @@
     <t>SHDN</t>
   </si>
   <si>
-    <t>transmit</t>
-  </si>
-  <si>
-    <t>receive</t>
-  </si>
-  <si>
     <t>Shutdown(pull low to shutdown)</t>
   </si>
   <si>
@@ -137,9 +131,6 @@
     <t>5-pin snapping connector</t>
   </si>
   <si>
-    <t>40pin(in 2 rows of 20) female connector to Pi</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -149,24 +140,12 @@
     <t>VDD/VCC</t>
   </si>
   <si>
-    <t>:) connect to 13</t>
-  </si>
-  <si>
-    <t>:) connect to 11</t>
-  </si>
-  <si>
-    <t>:) connect to 12</t>
-  </si>
-  <si>
     <t>:) connect to 9</t>
   </si>
   <si>
     <t>:) connect to 10</t>
   </si>
   <si>
-    <t>bridge to SDOM</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
@@ -197,9 +176,6 @@
     <t>Distance Sensor</t>
   </si>
   <si>
-    <t>Serial (to Arduino)</t>
-  </si>
-  <si>
     <t>Pi Breakout Interface</t>
   </si>
   <si>
@@ -207,12 +183,6 @@
   </si>
   <si>
     <t>Connector</t>
-  </si>
-  <si>
-    <t>2x 1-row 20 pin connectors (breakout on left &amp; right)</t>
-  </si>
-  <si>
-    <t>2-pin</t>
   </si>
   <si>
     <t>left</t>
@@ -232,19 +202,64 @@
 I2C: Accel/Gryo Address Select</t>
   </si>
   <si>
-    <t>Interface to Pi</t>
-  </si>
-  <si>
-    <t>Pin Breakout</t>
-  </si>
-  <si>
     <t>0.1" standard header pins</t>
+  </si>
+  <si>
+    <t>Interface to Pi &amp;Breakout</t>
+  </si>
+  <si>
+    <t>40-pins (2 rows of 20) extra long female headers</t>
+  </si>
+  <si>
+    <t>raspberry pi library</t>
+  </si>
+  <si>
+    <t>github</t>
+  </si>
+  <si>
+    <t>:) connect to 11(MOSI)</t>
+  </si>
+  <si>
+    <t>:) connect to 13(SCK)</t>
+  </si>
+  <si>
+    <t>:) connect to 12(MISO)</t>
+  </si>
+  <si>
+    <t>bridge to SDOM(MISO)</t>
+  </si>
+  <si>
+    <t>Arduino Interface</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>PWR_5V</t>
+  </si>
+  <si>
+    <t>Pi's transmit</t>
+  </si>
+  <si>
+    <t>Pi's receive</t>
+  </si>
+  <si>
+    <t>5V power from arduino</t>
+  </si>
+  <si>
+    <t>ground from arduino</t>
+  </si>
+  <si>
+    <t>4-pin female latched 0.1" header</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -449,7 +464,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -466,9 +480,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -505,6 +516,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -820,450 +853,467 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.3828125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.3046875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.53515625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.69140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.61328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.3046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.3828125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>55</v>
+    <row r="1" spans="1:9" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="26">
+        <v>1</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="28">
+      <c r="I2" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="40"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="28">
-        <v>1</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="5"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="26">
+        <v>8</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="28">
-        <v>8</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="6" t="s">
+    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="5"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="H11" s="5"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="31">
-        <v>1</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="14" t="s">
+      <c r="G12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="G13" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="28"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="36" t="s">
+      <c r="C15" s="28"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="H15" s="22"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="F17" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="37"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="37"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="37"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="37"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="37"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>43</v>
+        <v>28</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="9"/>
+    <row r="23" spans="1:9" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A23" s="3"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" s="6" customFormat="1" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="5"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D15:D23"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D24"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I6" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B11" r:id="rId3"/>
-    <hyperlink ref="I2" r:id="rId4"/>
-    <hyperlink ref="I3" r:id="rId5"/>
-    <hyperlink ref="I4" r:id="rId6"/>
-    <hyperlink ref="B2" r:id="rId7" display="pi_pinout"/>
-    <hyperlink ref="I11" r:id="rId8"/>
-    <hyperlink ref="I15" r:id="rId9"/>
+    <hyperlink ref="I7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" display="pi_pinout" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I2" r:id="rId7" xr:uid="{AE37E17F-8E2A-4783-89E9-0A8238614A7F}"/>
+    <hyperlink ref="B13" r:id="rId8" xr:uid="{548D7DC4-3BE5-4427-BD96-60CD90BC1329}"/>
+    <hyperlink ref="I3" r:id="rId9" xr:uid="{937BA004-035B-4280-92DE-554B595F4D51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>

--- a/Electrical/Pi_ExternalConnections.xlsx
+++ b/Electrical/Pi_ExternalConnections.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub_Local\2018\Electrical\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF15A6FD-B944-4A86-9606-9E4416407697}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14734" yWindow="0" windowWidth="18523" windowHeight="10423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15831" yWindow="0" windowWidth="18523" windowHeight="10423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Signal Name</t>
   </si>
@@ -62,90 +63,18 @@
     <t>i2c serial data</t>
   </si>
   <si>
-    <t>IMU</t>
-  </si>
-  <si>
     <t>ground</t>
   </si>
   <si>
     <t>input voltage (use 3.3V for our logic levels)</t>
   </si>
   <si>
-    <t>power (3.3V)</t>
-  </si>
-  <si>
-    <t>i2c SDA OR SPI: MOSI</t>
-  </si>
-  <si>
-    <t>i2c &amp; SPI serial clock</t>
-  </si>
-  <si>
-    <t>DEN</t>
-  </si>
-  <si>
-    <t>gyroscope data enable</t>
-  </si>
-  <si>
-    <t>INT1</t>
-  </si>
-  <si>
-    <t>INT2</t>
-  </si>
-  <si>
-    <t>INTM</t>
-  </si>
-  <si>
-    <t>magnetometer interrupt</t>
-  </si>
-  <si>
-    <t>RDY</t>
-  </si>
-  <si>
-    <t>magnetometer data ready</t>
-  </si>
-  <si>
-    <t>CS M</t>
-  </si>
-  <si>
-    <t>magnetometer chip select</t>
-  </si>
-  <si>
-    <t>CS AG</t>
-  </si>
-  <si>
-    <t>Accel/Gyro chip select</t>
-  </si>
-  <si>
-    <t>accel/gyro interrupt 1</t>
-  </si>
-  <si>
-    <t>accel/gyro interrupt 2</t>
-  </si>
-  <si>
-    <t>SDO M</t>
-  </si>
-  <si>
-    <t>SDO AG</t>
-  </si>
-  <si>
     <t>5-pin snapping connector</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>:)</t>
-  </si>
-  <si>
-    <t>VDD/VCC</t>
-  </si>
-  <si>
-    <t>:) connect to 9</t>
-  </si>
-  <si>
-    <t>:) connect to 10</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
@@ -161,9 +90,6 @@
     <t>adafruit</t>
   </si>
   <si>
-    <t>sparkfun</t>
-  </si>
-  <si>
     <t>Count</t>
   </si>
   <si>
@@ -185,48 +111,13 @@
     <t>Connector</t>
   </si>
   <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
     <t>Signals Used</t>
   </si>
   <si>
-    <t>SPI: Magnetometer MISO,
-I2C: Magnetometer Address Select</t>
-  </si>
-  <si>
-    <t>SPI: Accel/Gyro MISO,
-I2C: Accel/Gryo Address Select</t>
-  </si>
-  <si>
-    <t>0.1" standard header pins</t>
-  </si>
-  <si>
     <t>Interface to Pi &amp;Breakout</t>
   </si>
   <si>
     <t>40-pins (2 rows of 20) extra long female headers</t>
-  </si>
-  <si>
-    <t>raspberry pi library</t>
-  </si>
-  <si>
-    <t>github</t>
-  </si>
-  <si>
-    <t>:) connect to 11(MOSI)</t>
-  </si>
-  <si>
-    <t>:) connect to 13(SCK)</t>
-  </si>
-  <si>
-    <t>:) connect to 12(MISO)</t>
-  </si>
-  <si>
-    <t>bridge to SDOM(MISO)</t>
   </si>
   <si>
     <t>Arduino Interface</t>
@@ -293,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -401,54 +292,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -456,17 +305,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -475,7 +319,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -496,48 +339,42 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -854,194 +691,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20.3828125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.3046875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.3046875" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.53515625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.69140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.61328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="48.3046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.3828125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.3828125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="10" t="s">
+    <row r="1" spans="1:9" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>43</v>
+      <c r="G1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="26">
+        <v>25</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="22">
         <v>1</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="41" t="s">
-        <v>68</v>
+        <v>31</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="45" t="s">
-        <v>47</v>
+        <v>16</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="42"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="42" t="s">
-        <v>69</v>
+      <c r="C5" s="24"/>
+      <c r="D5" s="31" t="s">
+        <v>33</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="11"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="43"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="9"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="26">
+        <v>24</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="22">
         <v>8</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>47</v>
+      <c r="I7" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="33"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="8"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="33"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1049,12 +886,12 @@
         <v>6</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="8"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="33"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1062,12 +899,12 @@
         <v>10</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="8"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="32"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1075,247 +912,125 @@
         <v>11</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="29">
-        <v>1</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>47</v>
-      </c>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="39"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="A13" s="27"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="34"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="8"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="34"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="24"/>
+      <c r="D15" s="34"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>47</v>
-      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="34"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="34"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="8"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="34"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="8"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="34"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="8"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="34"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="8"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="34"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="8"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="34"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>65</v>
-      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="34"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:9" s="6" customFormat="1" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="5"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="9"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="3"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="34"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="3"/>
+      <c r="C25" s="24"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D11"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D16:D24"/>
     <mergeCell ref="D3:D4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B2" r:id="rId4" display="pi_pinout" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="I16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I2" r:id="rId7" xr:uid="{AE37E17F-8E2A-4783-89E9-0A8238614A7F}"/>
-    <hyperlink ref="B13" r:id="rId8" xr:uid="{548D7DC4-3BE5-4427-BD96-60CD90BC1329}"/>
-    <hyperlink ref="I3" r:id="rId9" xr:uid="{937BA004-035B-4280-92DE-554B595F4D51}"/>
+    <hyperlink ref="B2" r:id="rId3" display="pi_pinout" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I2" r:id="rId4" xr:uid="{AE37E17F-8E2A-4783-89E9-0A8238614A7F}"/>
+    <hyperlink ref="I3" r:id="rId5" xr:uid="{937BA004-035B-4280-92DE-554B595F4D51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Electrical/Pi_ExternalConnections.xlsx
+++ b/Electrical/Pi_ExternalConnections.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t xml:space="preserve">Interface</t>
   </si>
@@ -40,9 +40,6 @@
     <t xml:space="preserve">Signal Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Signals Used</t>
-  </si>
-  <si>
     <t xml:space="preserve">Connector</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t xml:space="preserve">Interface to Pi &amp;Breakout</t>
   </si>
   <si>
-    <t xml:space="preserve">n/a</t>
-  </si>
-  <si>
     <t xml:space="preserve">40-pins (2 rows of 20) extra long female headers</t>
   </si>
   <si>
@@ -73,76 +67,85 @@
     <t xml:space="preserve">power</t>
   </si>
   <si>
+    <t xml:space="preserve">3-pin female latched 0.1" header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">digikey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/products/en?keywords=WM4825-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ground from arduino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pi's transmit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pi's receive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance Sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input voltage (use 3.3V for our logic levels)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-pin snapping connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/products/en?keywords=WM4827-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ground</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHDN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shutdown(pull low to shutdown)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i2c serial clock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i2c serial data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5V Power from Voltage Regulator</t>
+  </si>
+  <si>
     <t xml:space="preserve">PWR_5V</t>
   </si>
   <si>
     <t xml:space="preserve">5V power from arduino</t>
   </si>
   <si>
-    <t xml:space="preserve">all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-pin female latched 0.1" header</t>
-  </si>
-  <si>
-    <t xml:space="preserve">digikey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ground from arduino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">serial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pi's transmit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pi's receive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distance Sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input voltage (use 3.3V for our logic levels)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-pin snapping connector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.digikey.com/products/en?keywords=WM4827-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ground</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHDN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shutdown(pull low to shutdown)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i2c serial clock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i2c serial data</t>
+    <t xml:space="preserve">2-pin female latched 0.1" header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/products/en?keywords=WM4824-ND</t>
   </si>
 </sst>
 </file>
@@ -200,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -282,6 +285,20 @@
       <left/>
       <right/>
       <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -314,7 +331,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -435,15 +452,27 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -525,31 +554,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="1:13"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J8" activeCellId="0" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="9"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="3" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="48.7408906882591"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="4" width="7.39271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="49.165991902834"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="7.49797570850202"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -568,209 +596,238 @@
       <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="15" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="13" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>14</v>
-      </c>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="14.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
       <c r="D3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="I3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="true" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="C4" s="3"/>
       <c r="D4" s="18"/>
       <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="AMJ4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0"/>
+      <c r="B5" s="0"/>
+      <c r="C5" s="0"/>
+      <c r="D5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D5" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="I5" s="21"/>
-    </row>
-    <row r="6" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="0"/>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="23"/>
       <c r="C6" s="25"/>
       <c r="D6" s="22"/>
       <c r="E6" s="24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="26"/>
+      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" s="15" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="13" t="n">
         <v>8</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="true" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AMJ7" s="0"/>
+    </row>
+    <row r="8" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="C8" s="3"/>
       <c r="D8" s="27"/>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" s="2" customFormat="true" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="4"/>
+      <c r="AMJ8" s="0"/>
+    </row>
+    <row r="9" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="C9" s="3"/>
       <c r="D9" s="27"/>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" s="2" customFormat="true" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="4"/>
+      <c r="AMJ9" s="0"/>
+    </row>
+    <row r="10" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
       <c r="C10" s="3"/>
       <c r="D10" s="27"/>
       <c r="E10" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="4"/>
+      <c r="AMJ10" s="0"/>
+    </row>
+    <row r="11" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="23"/>
       <c r="C11" s="25"/>
       <c r="D11" s="27"/>
       <c r="E11" s="24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="26"/>
-    </row>
-    <row r="12" s="31" customFormat="true" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="26"/>
+      <c r="AMJ11" s="0"/>
+    </row>
+    <row r="12" s="31" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B12" s="28"/>
       <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="32"/>
+      <c r="D12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AMJ12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D11"/>
+    <mergeCell ref="D12:D13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="Pi Pinout"/>
-    <hyperlink ref="I2" r:id="rId2" display="adafruit"/>
-    <hyperlink ref="I3" r:id="rId3" display="digikey"/>
+    <hyperlink ref="H2" r:id="rId2" display="adafruit"/>
+    <hyperlink ref="H3" r:id="rId3" display="digikey"/>
     <hyperlink ref="B7" r:id="rId4" display="adafruit"/>
-    <hyperlink ref="I7" r:id="rId5" display="digikey"/>
+    <hyperlink ref="H7" r:id="rId5" display="digikey"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
